--- a/artfynd/A 39839-2019.xlsx
+++ b/artfynd/A 39839-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,6 +1317,118 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>74683551</v>
+      </c>
+      <c r="B7" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>201164</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sexfläckig bastardsvärmare</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Zygaena filipendulae</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Klinte, vägrenen, Klinte, Gtl</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>730441</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6368156</v>
+      </c>
+      <c r="S7" t="n">
+        <v>50</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Gammelgarn</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2018-07-11</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2018-07-11</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Ulf L Larsson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Ulf L Larsson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 39839-2019.xlsx
+++ b/artfynd/A 39839-2019.xlsx
@@ -1322,7 +1322,7 @@
         <v>74683551</v>
       </c>
       <c r="B7" t="n">
-        <v>44331</v>
+        <v>44337</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
